--- a/newProject/KSH/mainapp/parsers/KSHGoogle2022.xlsx
+++ b/newProject/KSH/mainapp/parsers/KSHGoogle2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Backup Disk D\PC\Git\Diploma\newProject\KSH\mainapp\parsers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F9B32-68DD-4EF3-9FAD-2F5EEEB152FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33688151-6FC0-4631-9CDE-A72DE311BBA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="5505" windowWidth="20130" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="2295" windowWidth="20100" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ответы" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -55,15 +55,9 @@
     <t>Имя</t>
   </si>
   <si>
-    <t xml:space="preserve"> Полина</t>
-  </si>
-  <si>
     <t>Отчество</t>
   </si>
   <si>
-    <t xml:space="preserve"> Борис</t>
-  </si>
-  <si>
     <t>Петрович</t>
   </si>
   <si>
@@ -92,6 +86,21 @@
   </si>
   <si>
     <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>В какую группу вы хотите?</t>
   </si>
 </sst>
 </file>
@@ -369,11 +378,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -381,7 +390,7 @@
     <col min="1" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,100 +416,112 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>44723.819930555554</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>8800053535</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>44723.819918935187</v>
-      </c>
-      <c r="B2" s="2">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2">
-        <v>79025823452</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>44723.819930555554</v>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>44871.989687499998</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>8800053535</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>88005353535</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>44723.819918935187</v>
+      </c>
+      <c r="B4" s="2">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2">
+        <v>79025823452</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>44871.989687499998</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>88005353535</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D9776DFC-83DA-41EF-921B-705E26D3FB60}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{D4FC27E8-6895-4744-A7B7-AACFB71C10D5}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{D9776DFC-83DA-41EF-921B-705E26D3FB60}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{D4FC27E8-6895-4744-A7B7-AACFB71C10D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
